--- a/data/df_taxa_fig.xlsx
+++ b/data/df_taxa_fig.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$B$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$109</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="191">
   <si>
     <t>url</t>
   </si>
@@ -590,6 +590,24 @@
   </si>
   <si>
     <t>multispp_group</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5061/dryad.612jm641c</t>
+  </si>
+  <si>
+    <t>wolf, moose</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5061/dryad.bf771</t>
+  </si>
+  <si>
+    <t>39 Bird species</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5061/dryad.pvmcvdnh1</t>
+  </si>
+  <si>
+    <t>Actinopterygii</t>
   </si>
 </sst>
 </file>
@@ -954,13 +972,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomRight" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,6 +1973,9 @@
       <c r="B86" t="s">
         <v>138</v>
       </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -1963,6 +1984,9 @@
       <c r="B87" t="s">
         <v>140</v>
       </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -1971,6 +1995,12 @@
       <c r="B88" t="s">
         <v>142</v>
       </c>
+      <c r="D88" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -1979,13 +2009,19 @@
       <c r="B89" t="s">
         <v>101</v>
       </c>
+      <c r="C89" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B90" t="s">
         <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2179,8 +2215,44 @@
         <v>439</v>
       </c>
     </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" t="s">
+        <v>188</v>
+      </c>
+      <c r="D109" t="s">
+        <v>177</v>
+      </c>
+      <c r="E109">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B106"/>
+  <autoFilter ref="A1:E109"/>
   <hyperlinks>
     <hyperlink ref="A44" r:id="rId1"/>
     <hyperlink ref="A12" r:id="rId2"/>
@@ -2240,9 +2312,10 @@
     <hyperlink ref="A75" r:id="rId56"/>
     <hyperlink ref="A3" r:id="rId57"/>
     <hyperlink ref="A106" r:id="rId58"/>
+    <hyperlink ref="A90" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
 
